--- a/AUTHOR_THOUGHTS/ABC_PAPERS_READ_updated.xlsx
+++ b/AUTHOR_THOUGHTS/ABC_PAPERS_READ_updated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZENABU\Dropbox\github\masters_project\AUTHOR_THOUGHTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zee\Documents\GitHub\masters_project\AUTHOR_THOUGHTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5719E828-4BC9-4968-A296-9D2C13838FF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,7 +575,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1195,22 +1196,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="69.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.7265625" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" customWidth="1"/>
+    <col min="3" max="3" width="69.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1288,7 +1289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1296,7 +1297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
